--- a/output/fit_clients/fit_round_424.xlsx
+++ b/output/fit_clients/fit_round_424.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1937997402.636051</v>
+        <v>2061868501.960965</v>
       </c>
       <c r="F2" t="n">
-        <v>0.100965294656846</v>
+        <v>0.07588136192566615</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03376512950096192</v>
+        <v>0.03558353866177734</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>968998688.621284</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2485818478.680017</v>
+        <v>1950662793.158641</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1725245377090457</v>
+        <v>0.1386783342350842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03783619625054084</v>
+        <v>0.04055142257292497</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1242909354.649672</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4113672441.446</v>
+        <v>4873395405.189814</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1295632317451898</v>
+        <v>0.123309768983445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0374586994482301</v>
+        <v>0.02464149562922197</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>153</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2056836242.964089</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2579548478.340548</v>
+        <v>2858760783.762218</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07118122054567667</v>
+        <v>0.1054066498904909</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03323364077784777</v>
+        <v>0.03861960657052826</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>157</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1289774336.827538</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1826372032.792692</v>
+        <v>1861919760.22935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09475628362114735</v>
+        <v>0.1331172807220987</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04500736946526006</v>
+        <v>0.03743905105934339</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>79</v>
-      </c>
-      <c r="J6" t="n">
-        <v>913186064.7965497</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2613731287.446544</v>
+        <v>2863053134.649673</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07806088826086138</v>
+        <v>0.07641635340942063</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04255823798409262</v>
+        <v>0.04432228143869186</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>133</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1306865645.872298</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2817609957.398462</v>
+        <v>3482748316.782385</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1894599049621275</v>
+        <v>0.1566003862244</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03186431106226613</v>
+        <v>0.02127163542574735</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>136</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1408805017.582231</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2315029871.5063</v>
+        <v>2266680747.113964</v>
       </c>
       <c r="F9" t="n">
-        <v>0.194179930407389</v>
+        <v>0.1317836652182864</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03311272355548837</v>
+        <v>0.03646700766054919</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1157514918.682255</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4685266396.615348</v>
+        <v>5790377542.725474</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1682794256051371</v>
+        <v>0.1422718707821163</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03730947433537733</v>
+        <v>0.0360266877563441</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>178</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2342633273.256021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3988703407.288838</v>
+        <v>2892987497.37605</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1459040901577936</v>
+        <v>0.1202396799109862</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04178694676965705</v>
+        <v>0.03995065860909677</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>175</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1994351715.592101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3234700639.295548</v>
+        <v>2201429610.221458</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1799247795204988</v>
+        <v>0.1720919904140149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04928783005471611</v>
+        <v>0.05084328853232208</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>144</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1617350359.172191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5160706601.309817</v>
+        <v>3718881958.8367</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0962484402806498</v>
+        <v>0.06648924921610397</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02805739694957249</v>
+        <v>0.02470424658858493</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>142</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2580353296.647604</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3712034278.382802</v>
+        <v>3213055355.338908</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1626587636560053</v>
+        <v>0.1713479506545227</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03190103553773217</v>
+        <v>0.03470563352070494</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1856017122.085566</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1488757486.08661</v>
+        <v>1674648230.597896</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07208271189257986</v>
+        <v>0.1070652940751174</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04015294506878955</v>
+        <v>0.04194051886601606</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>744378826.0133439</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2756459091.78335</v>
+        <v>2876408399.27197</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08529415258021257</v>
+        <v>0.1024315059298015</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03672725225848335</v>
+        <v>0.04380929808063053</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>86</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1378229553.825916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4665971757.209467</v>
+        <v>4912906633.555869</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1501500177583015</v>
+        <v>0.1129800587393332</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0361214826572983</v>
+        <v>0.04538645651438905</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2332985880.295283</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3548442456.091246</v>
+        <v>3688148830.603345</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1456390168197986</v>
+        <v>0.1497345843966105</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02202474971248126</v>
+        <v>0.02785674655902669</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>139</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1774221218.614014</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1090856667.728907</v>
+        <v>1118669613.9974</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1861232189696307</v>
+        <v>0.164658527388512</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02496003039927764</v>
+        <v>0.02276900098138107</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>545428385.2710328</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2794963271.2605</v>
+        <v>2812460856.916568</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1056187933529175</v>
+        <v>0.1099018946930513</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02589452566243929</v>
+        <v>0.02746790231854952</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1397481577.327757</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1987715822.715907</v>
+        <v>2729277320.160101</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07913737598622136</v>
+        <v>0.06293186468861843</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03134124330814986</v>
+        <v>0.04540733944880807</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>993857948.5013415</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3289385642.892572</v>
+        <v>3397519089.133306</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1373995605232312</v>
+        <v>0.1048092420245534</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04679078775876747</v>
+        <v>0.04753290187369475</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1644692865.666922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>966207632.2890085</v>
+        <v>1075327182.2902</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1777759793547143</v>
+        <v>0.175947671623094</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05138133237088657</v>
+        <v>0.05348863658034468</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>483103892.0295711</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4041540649.955241</v>
+        <v>2808074997.159738</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1405845641523159</v>
+        <v>0.1373096951221884</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02444017187988291</v>
+        <v>0.03022974928343962</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>124</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2020770290.200454</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1183958030.669701</v>
+        <v>1385922282.941507</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1226675917632706</v>
+        <v>0.09293005030836579</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01937352195227934</v>
+        <v>0.02781307504526853</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>591979037.0028389</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1276473568.765779</v>
+        <v>889249735.5163677</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07566796628475224</v>
+        <v>0.101931515635496</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03335155499249148</v>
+        <v>0.03684404404463798</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>638236824.1216612</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4422850554.410743</v>
+        <v>4700653113.741328</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1110256687523462</v>
+        <v>0.1365810778505467</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02486251394248028</v>
+        <v>0.01889385731855011</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2211425266.370002</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2825581661.243272</v>
+        <v>2855605469.548593</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09239578282594485</v>
+        <v>0.09724226878052973</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03332877965931168</v>
+        <v>0.04418885990260123</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>137</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1412790826.723777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4478201984.395137</v>
+        <v>4507294612.260406</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1349828568977065</v>
+        <v>0.09608356337904854</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04327326290408349</v>
+        <v>0.03205943970557268</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>187</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2239100975.895616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2045140871.803539</v>
+        <v>1503721526.670484</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1352424428576545</v>
+        <v>0.111276047327458</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02664125146697459</v>
+        <v>0.02840335032442251</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1022570478.503744</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1319138439.66839</v>
+        <v>1211629002.013501</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1016189778523119</v>
+        <v>0.07591712550178052</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0498335734983384</v>
+        <v>0.03443730383274024</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>659569143.2761503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1636518689.533052</v>
+        <v>1236321235.391509</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07289458579870535</v>
+        <v>0.09601745028152062</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03460484920353616</v>
+        <v>0.03583279243130454</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>818259441.4074774</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2847729198.107383</v>
+        <v>3123554788.644132</v>
       </c>
       <c r="F33" t="n">
-        <v>0.14380361002945</v>
+        <v>0.1686265473703696</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04822258807297232</v>
+        <v>0.04373397765589422</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>128</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1423864607.656234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1499558666.955263</v>
+        <v>1131094987.116412</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09270776218291515</v>
+        <v>0.1153768659205925</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02162803307557338</v>
+        <v>0.01962788708224566</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>749779289.3942512</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1331536142.48976</v>
+        <v>864772170.3569119</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08716521774752881</v>
+        <v>0.1086255054213704</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03385531591783401</v>
+        <v>0.04265931893189602</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>665768017.1481265</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2578519165.630661</v>
+        <v>2757154646.20873</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1727662403758095</v>
+        <v>0.1669715553681596</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02576642778471924</v>
+        <v>0.02726269147573766</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>107</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1289259598.53322</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2802660037.553</v>
+        <v>2161884080.829342</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08906411576141611</v>
+        <v>0.094824521004103</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0271031137232885</v>
+        <v>0.03871521094511472</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>114</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1401330156.476998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1391008587.884124</v>
+        <v>1389788122.984017</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09594563092921433</v>
+        <v>0.08358380087974041</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03529360262956979</v>
+        <v>0.03967590881832268</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>695504358.6118813</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2152908266.951561</v>
+        <v>2126084413.060789</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1481040899574548</v>
+        <v>0.1213627798656099</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02046569657633068</v>
+        <v>0.0289248948143759</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1076454104.825776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1224537831.302314</v>
+        <v>1651306806.463778</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1234705940445889</v>
+        <v>0.1293885169296757</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03845754278185918</v>
+        <v>0.05198425429743467</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>612268950.8233252</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2518569210.753421</v>
+        <v>2684091895.734234</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1349890883061895</v>
+        <v>0.1372523791123468</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03220697864939975</v>
+        <v>0.04012829769687759</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1259284628.899239</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4198565027.489163</v>
+        <v>3930855394.940115</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08282493385428129</v>
+        <v>0.09549466622370341</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0327901538164207</v>
+        <v>0.03630689075550309</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2099282556.687434</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2653190229.518574</v>
+        <v>2898790314.995099</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1762440832205223</v>
+        <v>0.1243413272263825</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02566219053478902</v>
+        <v>0.01597999077184774</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>147</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1326595148.018058</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1697605680.432606</v>
+        <v>2341495496.187457</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08451020610823842</v>
+        <v>0.0696742033183462</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03668680505450434</v>
+        <v>0.02603913218267562</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>848802886.2267616</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2303505941.627665</v>
+        <v>2084858657.71148</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1881766311983541</v>
+        <v>0.1286912924883218</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05306290860815999</v>
+        <v>0.03551344211699781</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1151752992.29019</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4632145139.855881</v>
+        <v>5322404591.425018</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1534852257963127</v>
+        <v>0.1618686439166778</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03747328856212799</v>
+        <v>0.04577626145810305</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>151</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2316072575.709508</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3657402351.196801</v>
+        <v>3753023409.039333</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1507155972796075</v>
+        <v>0.163639047422394</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05679387793086306</v>
+        <v>0.0501772672242107</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1828701155.376026</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3229600466.715791</v>
+        <v>4581983130.301322</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1102817202619194</v>
+        <v>0.08122506574747332</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03675957272343048</v>
+        <v>0.02851946362620208</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1614800312.507228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1858983785.268959</v>
+        <v>1552896972.637357</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1587790229827652</v>
+        <v>0.163269482337415</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04037720356298562</v>
+        <v>0.0354487270623168</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>929491868.8666898</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4098203157.32931</v>
+        <v>4213918670.20525</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1628805830407876</v>
+        <v>0.1377492609572917</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05066084906860716</v>
+        <v>0.03556008633679797</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>144</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2049101560.376823</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1074885768.015181</v>
+        <v>1138551913.968716</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1791822156801404</v>
+        <v>0.1524855013669907</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04547052386603988</v>
+        <v>0.05101971114856054</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>537442955.8439943</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3800466437.950791</v>
+        <v>4781041899.943563</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08742132000029459</v>
+        <v>0.1355485049792829</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04855137523259452</v>
+        <v>0.05463555016529103</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>175</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1900233287.212674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3343356923.911033</v>
+        <v>3780041477.153664</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1408009044577535</v>
+        <v>0.1806851175592798</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02707439221109247</v>
+        <v>0.02383602821552397</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1671678470.66288</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4102191168.009286</v>
+        <v>3695768287.57233</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1144209636959272</v>
+        <v>0.1478930972958818</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05088856248007308</v>
+        <v>0.04971803811895348</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>138</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2051095656.101941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4282782664.327357</v>
+        <v>3305939125.340477</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2132430139092613</v>
+        <v>0.1926507056069226</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02218111738643346</v>
+        <v>0.03141477921740553</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2141391319.569105</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1147352090.751081</v>
+        <v>1868760319.660008</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1586911716360107</v>
+        <v>0.1147885357245016</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03543188684513415</v>
+        <v>0.03607900303644816</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>573676139.9174613</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3419900120.624435</v>
+        <v>2965420861.234876</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1700547405822522</v>
+        <v>0.1625681639784533</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01914911827613269</v>
+        <v>0.02634185625065842</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>134</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1709950099.990215</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1778757070.520111</v>
+        <v>1673248803.128791</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1841922711989201</v>
+        <v>0.123845936100925</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02481236082244038</v>
+        <v>0.02654546730317504</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>889378540.9684558</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5116886783.890285</v>
+        <v>4308705314.139432</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1213096029300245</v>
+        <v>0.1123447891976464</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03580826176363042</v>
+        <v>0.04296242771230608</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2558443314.032456</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3176770655.241396</v>
+        <v>2572093891.156854</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1918233379687982</v>
+        <v>0.1526690646987703</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03060488339757061</v>
+        <v>0.02027394936697527</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>131</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1588385416.52913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2798405320.001874</v>
+        <v>3170895774.995658</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1221736168642181</v>
+        <v>0.1743363091174343</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03269869422465044</v>
+        <v>0.03100849043928239</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>146</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1399202659.496151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1374773082.78695</v>
+        <v>1989741285.375326</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1823744887873303</v>
+        <v>0.1239997859814528</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04761600508997716</v>
+        <v>0.0367105161551279</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>687386505.7019085</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4998801836.507598</v>
+        <v>4534487003.636871</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1053716735019512</v>
+        <v>0.1000536993826038</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04041308187737985</v>
+        <v>0.03964110185297387</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>124</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2499400936.075482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3382890326.483884</v>
+        <v>5271614367.78732</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1434627419528251</v>
+        <v>0.1589826047724741</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02664915184277274</v>
+        <v>0.03188268039058442</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>132</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1691445155.710893</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5131937853.885013</v>
+        <v>5493278486.8788</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1647073269911659</v>
+        <v>0.161920636575589</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01966378769269058</v>
+        <v>0.03020514287975792</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>152</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2565968877.994443</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5730618725.837576</v>
+        <v>5370711947.091305</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1252837121647196</v>
+        <v>0.1532222596496459</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0337127406216735</v>
+        <v>0.03190841255090728</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2865309429.239077</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2909726473.410466</v>
+        <v>2159602030.609875</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08134956207344882</v>
+        <v>0.1006835280700466</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04764696207427554</v>
+        <v>0.04509858623924726</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>135</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1454863262.59706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6071490956.948937</v>
+        <v>3884842691.680512</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1575171070564112</v>
+        <v>0.1013619523807328</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04189174258920305</v>
+        <v>0.04236259682061424</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3035745599.821136</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2014070294.16298</v>
+        <v>2357839821.298274</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1139817094640998</v>
+        <v>0.1756727707370135</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0392124837328305</v>
+        <v>0.06019996959715624</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1007035153.852151</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2352823468.077255</v>
+        <v>3097226770.554906</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06383883751946383</v>
+        <v>0.08361569819514733</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03865632037988259</v>
+        <v>0.03726019271249379</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>120</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1176411668.907012</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5544077797.016458</v>
+        <v>4446042244.497962</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1743686911852302</v>
+        <v>0.1250283697710668</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02858910672919518</v>
+        <v>0.02669169919384224</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>154</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2772039044.823385</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2140666852.986014</v>
+        <v>2244278983.123507</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08793880807604194</v>
+        <v>0.1021973876483608</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03679150295529568</v>
+        <v>0.04261127002896081</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1070333350.178303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2969881958.167897</v>
+        <v>3564634471.99847</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07522032411434167</v>
+        <v>0.08241596991938333</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04466956966155689</v>
+        <v>0.04260317714238904</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>160</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1484940977.82245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3521564041.809516</v>
+        <v>3908051179.47308</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1203726821950191</v>
+        <v>0.1470553294957733</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03297682737436228</v>
+        <v>0.03363100191880226</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>144</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1760782041.249778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1562799959.729627</v>
+        <v>2130256592.805002</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1479754310066287</v>
+        <v>0.1226836079668947</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02935652836255685</v>
+        <v>0.02670273878700984</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>781399985.0516212</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3276752298.23345</v>
+        <v>3521259563.344733</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09476969996576759</v>
+        <v>0.09229166975006053</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02833211777545348</v>
+        <v>0.03030622619455215</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>99</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1638376103.526987</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1605705887.970838</v>
+        <v>2112069985.307798</v>
       </c>
       <c r="F77" t="n">
-        <v>0.168017311135152</v>
+        <v>0.1332825892431835</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0262377421613576</v>
+        <v>0.02385806092762811</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>802852947.3284454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4732472225.046718</v>
+        <v>3379777858.222464</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1188301331521867</v>
+        <v>0.09259638712268911</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03813955320964082</v>
+        <v>0.05151542198233993</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>147</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2366236025.828929</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1296446800.096097</v>
+        <v>1780817140.491224</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1402046151040762</v>
+        <v>0.1107494112519957</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03274178493521089</v>
+        <v>0.02980719064881698</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>648223398.677802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4157053604.016364</v>
+        <v>4572456841.028428</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08529246061908682</v>
+        <v>0.06738748701764033</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02657391824595744</v>
+        <v>0.03396311725102045</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2078526809.322562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4235989427.097188</v>
+        <v>4755285933.677442</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08935089187339484</v>
+        <v>0.1084906966540926</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0261251335981598</v>
+        <v>0.02311133427421136</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2117994685.543352</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3576906169.675059</v>
+        <v>3975632014.953826</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1928705007019392</v>
+        <v>0.1954961797518732</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01986946570536984</v>
+        <v>0.02629111118531362</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>148</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1788453148.218869</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1706309789.577074</v>
+        <v>1744785863.593958</v>
       </c>
       <c r="F83" t="n">
-        <v>0.105717128621431</v>
+        <v>0.1214646607178161</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03705169126478722</v>
+        <v>0.03197559671157854</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>853154843.5908701</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2133390037.994456</v>
+        <v>2303237065.805368</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1037303564148188</v>
+        <v>0.1011387909628952</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03213127333656678</v>
+        <v>0.04423221008929761</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1066695004.533286</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2295291454.065322</v>
+        <v>3010959151.925025</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1622158488189114</v>
+        <v>0.1549381534459158</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03640448574266208</v>
+        <v>0.04034160217948767</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>160</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1147645709.401618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1746306370.36096</v>
+        <v>2356103828.304792</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1698889401806975</v>
+        <v>0.1132419494675429</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02282477307008943</v>
+        <v>0.02478637019543617</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>873153177.5316862</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1050131690.060043</v>
+        <v>1178812538.924244</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1212983257659904</v>
+        <v>0.1775752644970182</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03603272727641196</v>
+        <v>0.03716892775828366</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>525065862.2183414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2743348626.3742</v>
+        <v>3456903430.762898</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1165213023981007</v>
+        <v>0.1240096097814931</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03732095277646886</v>
+        <v>0.03539056422348837</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>168</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1371674318.297618</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2665493712.606016</v>
+        <v>3013562661.424355</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09911520152485691</v>
+        <v>0.1123570180770743</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0395157670432025</v>
+        <v>0.0379492091182125</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>142</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1332746918.964684</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2082072377.653449</v>
+        <v>1427644132.490278</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1326726321478212</v>
+        <v>0.09698193884148461</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04077011942759212</v>
+        <v>0.03892503432897942</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1041036274.093997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1710485178.472901</v>
+        <v>1724361872.53774</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1487051853392966</v>
+        <v>0.1350690909336658</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04566014081728348</v>
+        <v>0.04184103182194126</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>855242600.1026003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2735743544.863158</v>
+        <v>2386865452.818451</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1028329829054878</v>
+        <v>0.08494405634496585</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0358276754781686</v>
+        <v>0.04609636905292827</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1367871774.218874</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3887552282.145045</v>
+        <v>4524090590.472425</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1227043224971504</v>
+        <v>0.1013906800758965</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04410265321505157</v>
+        <v>0.04125618832726748</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>130</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1943776148.988277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2242705452.659635</v>
+        <v>2467251929.039608</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1289347431260246</v>
+        <v>0.1596205797391081</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02657715634105296</v>
+        <v>0.03752170680893244</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1121352756.25872</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3007444335.132291</v>
+        <v>2766400519.647167</v>
       </c>
       <c r="F95" t="n">
-        <v>0.10880643107546</v>
+        <v>0.09826074256952255</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03415278400001791</v>
+        <v>0.05148966974135784</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1503722166.754178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1450219466.334783</v>
+        <v>2021611624.634048</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09857734684681028</v>
+        <v>0.1237736351242346</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03689385201649226</v>
+        <v>0.03182758613494097</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>725109778.8397683</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3444670764.777169</v>
+        <v>4322544397.709339</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1711921161762991</v>
+        <v>0.1066408895220163</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0190216708333504</v>
+        <v>0.02210279579170388</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>137</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1722335394.116053</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2511700507.513324</v>
+        <v>2605969373.806825</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1105939311973115</v>
+        <v>0.1265237374994147</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02208006306172326</v>
+        <v>0.02573191579252943</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>112</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1255850205.347174</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2683300216.810166</v>
+        <v>3160419216.940639</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1116725616322659</v>
+        <v>0.1059355235560217</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02981357940411561</v>
+        <v>0.02386145816555288</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>134</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1341650071.477108</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4021088810.417645</v>
+        <v>2973904604.341771</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1505671949036058</v>
+        <v>0.1291100713045789</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01836812817678275</v>
+        <v>0.01754295215138179</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2010544477.592523</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2887830904.898517</v>
+        <v>3153587233.254335</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1591909426133059</v>
+        <v>0.2198858358866305</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04316271755011834</v>
+        <v>0.04190321919968013</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>172</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1443915526.741183</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_424.xlsx
+++ b/output/fit_clients/fit_round_424.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2061868501.960965</v>
+        <v>1975943307.434798</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07588136192566615</v>
+        <v>0.1076968126904803</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03558353866177734</v>
+        <v>0.04354062766107995</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1950662793.158641</v>
+        <v>1830542879.591781</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1386783342350842</v>
+        <v>0.1394062389603413</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04055142257292497</v>
+        <v>0.03316478983799218</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4873395405.189814</v>
+        <v>4190223239.925343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.123309768983445</v>
+        <v>0.1467586405055319</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02464149562922197</v>
+        <v>0.03050219861230881</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2858760783.762218</v>
+        <v>3968873388.80361</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1054066498904909</v>
+        <v>0.09419424271803342</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03861960657052826</v>
+        <v>0.0361642812026868</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1861919760.22935</v>
+        <v>2019960934.275451</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1331172807220987</v>
+        <v>0.09424333749498637</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03743905105934339</v>
+        <v>0.05623188973827556</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2863053134.649673</v>
+        <v>2808942580.233689</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07641635340942063</v>
+        <v>0.0676199252784242</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04432228143869186</v>
+        <v>0.04680364237619213</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3482748316.782385</v>
+        <v>3125736307.266131</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1566003862244</v>
+        <v>0.1888182956697916</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02127163542574735</v>
+        <v>0.02983804946305946</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2266680747.113964</v>
+        <v>2006416833.074668</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1317836652182864</v>
+        <v>0.1337354998745653</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03646700766054919</v>
+        <v>0.02289469200954208</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5790377542.725474</v>
+        <v>4003763633.118113</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1422718707821163</v>
+        <v>0.2088857826863169</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0360266877563441</v>
+        <v>0.04020959410380529</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2892987497.37605</v>
+        <v>3239102858.599618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1202396799109862</v>
+        <v>0.1909116766204991</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03995065860909677</v>
+        <v>0.04118428378524409</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2201429610.221458</v>
+        <v>2941922271.971605</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1720919904140149</v>
+        <v>0.1341043434793076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05084328853232208</v>
+        <v>0.03744460513229158</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3718881958.8367</v>
+        <v>3353595596.827527</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06648924921610397</v>
+        <v>0.07662695293875812</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02470424658858493</v>
+        <v>0.02756596930993254</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3213055355.338908</v>
+        <v>3026825623.742184</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1713479506545227</v>
+        <v>0.1871499738519738</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03470563352070494</v>
+        <v>0.03451303360690191</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1674648230.597896</v>
+        <v>1515954910.043085</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070652940751174</v>
+        <v>0.07396117074780049</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04194051886601606</v>
+        <v>0.0354047879126</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2876408399.27197</v>
+        <v>2774542045.919118</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1024315059298015</v>
+        <v>0.08723552162775036</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04380929808063053</v>
+        <v>0.04940610946198167</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4912906633.555869</v>
+        <v>3205314116.842986</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1129800587393332</v>
+        <v>0.1567427330941244</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04538645651438905</v>
+        <v>0.04277724377848517</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3688148830.603345</v>
+        <v>3733370185.208416</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1497345843966105</v>
+        <v>0.1382131329297016</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02785674655902669</v>
+        <v>0.02443565520587643</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1118669613.9974</v>
+        <v>1212756821.57361</v>
       </c>
       <c r="F19" t="n">
-        <v>0.164658527388512</v>
+        <v>0.1246817957410863</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02276900098138107</v>
+        <v>0.02605719081290067</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2812460856.916568</v>
+        <v>2497758928.83928</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1099018946930513</v>
+        <v>0.140615807719964</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02746790231854952</v>
+        <v>0.02419183944290769</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2729277320.160101</v>
+        <v>2144308076.656321</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06293186468861843</v>
+        <v>0.07190969579324671</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04540733944880807</v>
+        <v>0.03481850844139701</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3397519089.133306</v>
+        <v>3418028254.582027</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1048092420245534</v>
+        <v>0.1065956154568934</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04753290187369475</v>
+        <v>0.05380863676151398</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1075327182.2902</v>
+        <v>1248371840.036735</v>
       </c>
       <c r="F23" t="n">
-        <v>0.175947671623094</v>
+        <v>0.1440809790790192</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05348863658034468</v>
+        <v>0.03349133183257311</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2808074997.159738</v>
+        <v>3913685796.342801</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1373096951221884</v>
+        <v>0.1072343639530398</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03022974928343962</v>
+        <v>0.02690074581441756</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1385922282.941507</v>
+        <v>1085796449.748988</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09293005030836579</v>
+        <v>0.1084866116627037</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02781307504526853</v>
+        <v>0.02631008753174769</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>889249735.5163677</v>
+        <v>916562071.6097025</v>
       </c>
       <c r="F26" t="n">
-        <v>0.101931515635496</v>
+        <v>0.07947224910570931</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03684404404463798</v>
+        <v>0.03353820997818686</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4700653113.741328</v>
+        <v>4220584953.128771</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1365810778505467</v>
+        <v>0.119923412368552</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01889385731855011</v>
+        <v>0.02000902259880376</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2855605469.548593</v>
+        <v>3222537545.54671</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09724226878052973</v>
+        <v>0.117149622613739</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04418885990260123</v>
+        <v>0.04725042301457819</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4507294612.260406</v>
+        <v>5508690233.340397</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09608356337904854</v>
+        <v>0.1211030433487573</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03205943970557268</v>
+        <v>0.04271761918111122</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1503721526.670484</v>
+        <v>1737427174.79863</v>
       </c>
       <c r="F30" t="n">
-        <v>0.111276047327458</v>
+        <v>0.1335583254734707</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02840335032442251</v>
+        <v>0.03020467868045514</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1211629002.013501</v>
+        <v>1283979128.269766</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07591712550178052</v>
+        <v>0.0918012348751466</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03443730383274024</v>
+        <v>0.04395115078303169</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1236321235.391509</v>
+        <v>1628644476.007665</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09601745028152062</v>
+        <v>0.0905924245354172</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03583279243130454</v>
+        <v>0.02446791736860522</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3123554788.644132</v>
+        <v>2312933971.960659</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1686265473703696</v>
+        <v>0.1917278902273573</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04373397765589422</v>
+        <v>0.03998306425945556</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1131094987.116412</v>
+        <v>1214842363.860966</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1153768659205925</v>
+        <v>0.1183088105888149</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01962788708224566</v>
+        <v>0.01959578892711602</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>864772170.3569119</v>
+        <v>1142802132.748407</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1086255054213704</v>
+        <v>0.07578559776837357</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04265931893189602</v>
+        <v>0.03559604501598789</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2757154646.20873</v>
+        <v>2681989215.655285</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1669715553681596</v>
+        <v>0.116119080862552</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02726269147573766</v>
+        <v>0.02883141827190878</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2161884080.829342</v>
+        <v>2838844398.865243</v>
       </c>
       <c r="F37" t="n">
-        <v>0.094824521004103</v>
+        <v>0.09012358198875579</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03871521094511472</v>
+        <v>0.03890624926319559</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1389788122.984017</v>
+        <v>1800517557.279883</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08358380087974041</v>
+        <v>0.0828006490141103</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03967590881832268</v>
+        <v>0.0372498745311045</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2126084413.060789</v>
+        <v>2123393819.334304</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1213627798656099</v>
+        <v>0.1431345647628313</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0289248948143759</v>
+        <v>0.02978807541244064</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1651306806.463778</v>
+        <v>1359606250.156275</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1293885169296757</v>
+        <v>0.1535493214056579</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05198425429743467</v>
+        <v>0.05976021840126831</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2684091895.734234</v>
+        <v>2778812252.826885</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1372523791123468</v>
+        <v>0.130173000634161</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04012829769687759</v>
+        <v>0.0354920848249974</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3930855394.940115</v>
+        <v>3410116382.912201</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09549466622370341</v>
+        <v>0.1216437205793825</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03630689075550309</v>
+        <v>0.03458525627547356</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2898790314.995099</v>
+        <v>2697897850.105173</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1243413272263825</v>
+        <v>0.1348334906235538</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01597999077184774</v>
+        <v>0.01865961198371455</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2341495496.187457</v>
+        <v>1695814808.157824</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0696742033183462</v>
+        <v>0.09677814830300537</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02603913218267562</v>
+        <v>0.03053664528002033</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2084858657.71148</v>
+        <v>2026944489.23885</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1286912924883218</v>
+        <v>0.1177897814963081</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03551344211699781</v>
+        <v>0.03476407770316174</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5322404591.425018</v>
+        <v>5598833130.747991</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1618686439166778</v>
+        <v>0.1600903863266367</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04577626145810305</v>
+        <v>0.04914519087588368</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3753023409.039333</v>
+        <v>4394066016.064425</v>
       </c>
       <c r="F47" t="n">
-        <v>0.163639047422394</v>
+        <v>0.1230423757383328</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0501772672242107</v>
+        <v>0.05007759898779813</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4581983130.301322</v>
+        <v>4618673593.179054</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08122506574747332</v>
+        <v>0.08062790883424961</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02851946362620208</v>
+        <v>0.03716790550602657</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1552896972.637357</v>
+        <v>1864090481.015353</v>
       </c>
       <c r="F49" t="n">
-        <v>0.163269482337415</v>
+        <v>0.1755453925183493</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0354487270623168</v>
+        <v>0.03893902013554311</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4213918670.20525</v>
+        <v>3193957168.408118</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1377492609572917</v>
+        <v>0.1531865912139586</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03556008633679797</v>
+        <v>0.03861735947243673</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1138551913.968716</v>
+        <v>957975069.0641348</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1524855013669907</v>
+        <v>0.1496831481308875</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05101971114856054</v>
+        <v>0.05153172438959154</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4781041899.943563</v>
+        <v>4188343381.989648</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1355485049792829</v>
+        <v>0.1092810705933302</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05463555016529103</v>
+        <v>0.04653625400117321</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3780041477.153664</v>
+        <v>3769433151.391288</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1806851175592798</v>
+        <v>0.137964338325323</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02383602821552397</v>
+        <v>0.02820435770748722</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3695768287.57233</v>
+        <v>3334093473.108661</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1478930972958818</v>
+        <v>0.1314164013586981</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04971803811895348</v>
+        <v>0.05121539653964239</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3305939125.340477</v>
+        <v>4088540027.660028</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1926507056069226</v>
+        <v>0.1817065609878872</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03141477921740553</v>
+        <v>0.02975736182485906</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1868760319.660008</v>
+        <v>1314569586.514784</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1147885357245016</v>
+        <v>0.1352892580802241</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03607900303644816</v>
+        <v>0.04829776543285091</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2965420861.234876</v>
+        <v>3121668466.044601</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1625681639784533</v>
+        <v>0.1579082100249863</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02634185625065842</v>
+        <v>0.02328902355493009</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1673248803.128791</v>
+        <v>1604395777.19962</v>
       </c>
       <c r="F58" t="n">
-        <v>0.123845936100925</v>
+        <v>0.1360977788358468</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02654546730317504</v>
+        <v>0.02999160090087036</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4308705314.139432</v>
+        <v>5071737368.905883</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1123447891976464</v>
+        <v>0.1068599069031699</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04296242771230608</v>
+        <v>0.04626642520648433</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2572093891.156854</v>
+        <v>2942789709.121264</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1526690646987703</v>
+        <v>0.1815596342629795</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02027394936697527</v>
+        <v>0.02783272230203823</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3170895774.995658</v>
+        <v>3347679387.217697</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1743363091174343</v>
+        <v>0.1327097246849845</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03100849043928239</v>
+        <v>0.03107144156314635</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1989741285.375326</v>
+        <v>1953472033.378938</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1239997859814528</v>
+        <v>0.1187983019119887</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0367105161551279</v>
+        <v>0.04379907373197297</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4534487003.636871</v>
+        <v>3419476573.332849</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1000536993826038</v>
+        <v>0.0829363575296828</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03964110185297387</v>
+        <v>0.03862905860690186</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5271614367.78732</v>
+        <v>4553505134.134629</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1589826047724741</v>
+        <v>0.1310405779563842</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03188268039058442</v>
+        <v>0.02397470588155002</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5493278486.8788</v>
+        <v>4226536411.681046</v>
       </c>
       <c r="F65" t="n">
-        <v>0.161920636575589</v>
+        <v>0.1150394457990219</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03020514287975792</v>
+        <v>0.02245692287779566</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5370711947.091305</v>
+        <v>3504832333.647416</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1532222596496459</v>
+        <v>0.1137769183319826</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03190841255090728</v>
+        <v>0.04411471319160457</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2159602030.609875</v>
+        <v>2806809952.975331</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1006835280700466</v>
+        <v>0.06568108420063755</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04509858623924726</v>
+        <v>0.03409563542970557</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3884842691.680512</v>
+        <v>3723127414.375888</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1013619523807328</v>
+        <v>0.1360443370459159</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04236259682061424</v>
+        <v>0.03368844468830128</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2357839821.298274</v>
+        <v>1689346384.259269</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1756727707370135</v>
+        <v>0.1484198337895749</v>
       </c>
       <c r="G69" t="n">
-        <v>0.06019996959715624</v>
+        <v>0.05725292037249745</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3097226770.554906</v>
+        <v>3218295766.547043</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08361569819514733</v>
+        <v>0.06721247265785543</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03726019271249379</v>
+        <v>0.03431229047869654</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4446042244.497962</v>
+        <v>3752652935.905649</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1250283697710668</v>
+        <v>0.1509718597030377</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02669169919384224</v>
+        <v>0.02951313790290489</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2244278983.123507</v>
+        <v>1927553727.883813</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1021973876483608</v>
+        <v>0.09745095156790161</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04261127002896081</v>
+        <v>0.04564927406213675</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3564634471.99847</v>
+        <v>2563613967.51999</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08241596991938333</v>
+        <v>0.1040214048276354</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04260317714238904</v>
+        <v>0.04841987302048265</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3908051179.47308</v>
+        <v>2986917520.863278</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1470553294957733</v>
+        <v>0.1444067286859236</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03363100191880226</v>
+        <v>0.02705792006393656</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2130256592.805002</v>
+        <v>2435822747.390296</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1226836079668947</v>
+        <v>0.1642039141045103</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02670273878700984</v>
+        <v>0.03444175543696053</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3521259563.344733</v>
+        <v>4689354328.049273</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09229166975006053</v>
+        <v>0.1141021375171791</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03030622619455215</v>
+        <v>0.02741591885258077</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2112069985.307798</v>
+        <v>1983625268.831473</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1332825892431835</v>
+        <v>0.1185554606945557</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02385806092762811</v>
+        <v>0.02445933314474964</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3379777858.222464</v>
+        <v>4553244636.516702</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09259638712268911</v>
+        <v>0.1002288556276695</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05151542198233993</v>
+        <v>0.05118957869562489</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1780817140.491224</v>
+        <v>1750352965.095758</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1107494112519957</v>
+        <v>0.1530936894010246</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02980719064881698</v>
+        <v>0.03572466492992184</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4572456841.028428</v>
+        <v>5547419377.136519</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06738748701764033</v>
+        <v>0.08508264703946243</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03396311725102045</v>
+        <v>0.0379309920483087</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4755285933.677442</v>
+        <v>4981691220.600964</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1084906966540926</v>
+        <v>0.132974098151761</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02311133427421136</v>
+        <v>0.02347777690878127</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3975632014.953826</v>
+        <v>4419033532.860985</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1954961797518732</v>
+        <v>0.2053521998661099</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02629111118531362</v>
+        <v>0.02390300665856019</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1744785863.593958</v>
+        <v>1850697479.92015</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1214646607178161</v>
+        <v>0.1385337685707106</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03197559671157854</v>
+        <v>0.02788720692718342</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2303237065.805368</v>
+        <v>2582907557.987843</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1011387909628952</v>
+        <v>0.1042587403776625</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04423221008929761</v>
+        <v>0.0402882855326362</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3010959151.925025</v>
+        <v>2464448366.831493</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1549381534459158</v>
+        <v>0.1235578972672268</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04034160217948767</v>
+        <v>0.04921863498815275</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2356103828.304792</v>
+        <v>2577390708.714156</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1132419494675429</v>
+        <v>0.1090287554374696</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02478637019543617</v>
+        <v>0.02570342984330823</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1178812538.924244</v>
+        <v>1141817845.287358</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1775752644970182</v>
+        <v>0.1656398823673458</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03716892775828366</v>
+        <v>0.03347425876297568</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3456903430.762898</v>
+        <v>3438190221.512418</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1240096097814931</v>
+        <v>0.1783077001937334</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03539056422348837</v>
+        <v>0.0254493671380721</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3013562661.424355</v>
+        <v>3511236027.231864</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1123570180770743</v>
+        <v>0.145602617401923</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0379492091182125</v>
+        <v>0.03750191215825301</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1427644132.490278</v>
+        <v>1390946433.098888</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09698193884148461</v>
+        <v>0.09052465767335979</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03892503432897942</v>
+        <v>0.04605564160494396</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1724361872.53774</v>
+        <v>1398614735.349503</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1350690909336658</v>
+        <v>0.1343870891050846</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04184103182194126</v>
+        <v>0.0550070160400631</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2386865452.818451</v>
+        <v>2220062775.86804</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08494405634496585</v>
+        <v>0.1050299888249522</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04609636905292827</v>
+        <v>0.02980805713660633</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4524090590.472425</v>
+        <v>4385519972.4177</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1013906800758965</v>
+        <v>0.1101874344978919</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04125618832726748</v>
+        <v>0.040304118206587</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2467251929.039608</v>
+        <v>2284596923.491585</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1596205797391081</v>
+        <v>0.1262560434468096</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03752170680893244</v>
+        <v>0.0314864420934151</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2766400519.647167</v>
+        <v>2075579061.312556</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09826074256952255</v>
+        <v>0.08378186195591768</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05148966974135784</v>
+        <v>0.03397258394859147</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2021611624.634048</v>
+        <v>2221463669.258908</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1237736351242346</v>
+        <v>0.1061036839140417</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03182758613494097</v>
+        <v>0.03227881535658837</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4322544397.709339</v>
+        <v>4145513566.622412</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1066408895220163</v>
+        <v>0.1111056530772901</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02210279579170388</v>
+        <v>0.02597594434770778</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2605969373.806825</v>
+        <v>2952366953.202626</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1265237374994147</v>
+        <v>0.1185411547876459</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02573191579252943</v>
+        <v>0.0244325299162112</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3160419216.940639</v>
+        <v>2783148967.273526</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1059355235560217</v>
+        <v>0.1261234353102274</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02386145816555288</v>
+        <v>0.02998960734140593</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2973904604.341771</v>
+        <v>3017370745.477315</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1291100713045789</v>
+        <v>0.1571523399683438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01754295215138179</v>
+        <v>0.01841579278575797</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3153587233.254335</v>
+        <v>3239804758.444305</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2198858358866305</v>
+        <v>0.1713436114020362</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04190321919968013</v>
+        <v>0.05267337971891649</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_424.xlsx
+++ b/output/fit_clients/fit_round_424.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1975943307.434798</v>
+        <v>1606909991.746695</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1076968126904803</v>
+        <v>0.09339739155248068</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04354062766107995</v>
+        <v>0.04539356525236313</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1830542879.591781</v>
+        <v>2056337310.035681</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1394062389603413</v>
+        <v>0.1285098094747451</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03316478983799218</v>
+        <v>0.03821166606644825</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4190223239.925343</v>
+        <v>4365687427.329543</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1467586405055319</v>
+        <v>0.1537253858797159</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03050219861230881</v>
+        <v>0.03206567094596222</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>215</v>
+      </c>
+      <c r="J4" t="n">
+        <v>424</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3968873388.80361</v>
+        <v>2967594159.950636</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09419424271803342</v>
+        <v>0.08206248209446304</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0361642812026868</v>
+        <v>0.04716983434940388</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>174</v>
+      </c>
+      <c r="J5" t="n">
+        <v>422</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2019960934.275451</v>
+        <v>2168837072.739829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09424333749498637</v>
+        <v>0.1125777628589576</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05623188973827556</v>
+        <v>0.0516677464672264</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2808942580.233689</v>
+        <v>2433184993.103975</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0676199252784242</v>
+        <v>0.0890229583148308</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04680364237619213</v>
+        <v>0.0456989847126765</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +711,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3125736307.266131</v>
+        <v>3388796065.587274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1888182956697916</v>
+        <v>0.1511783770284828</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02983804946305946</v>
+        <v>0.033068383586631</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>114</v>
+      </c>
+      <c r="J8" t="n">
+        <v>422</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2006416833.074668</v>
+        <v>2195986105.39734</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1337354998745653</v>
+        <v>0.1866330872931476</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02289469200954208</v>
+        <v>0.03642972418047592</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +781,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4003763633.118113</v>
+        <v>4393958025.115882</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2088857826863169</v>
+        <v>0.1384810811398177</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04020959410380529</v>
+        <v>0.05068369014983806</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>337</v>
+      </c>
+      <c r="J10" t="n">
+        <v>423</v>
+      </c>
+      <c r="K10" t="n">
+        <v>39.85115166153432</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3239102858.599618</v>
+        <v>4143143690.666739</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1909116766204991</v>
+        <v>0.133015240532417</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04118428378524409</v>
+        <v>0.04972165918476853</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>176</v>
+      </c>
+      <c r="J11" t="n">
+        <v>424</v>
+      </c>
+      <c r="K11" t="n">
+        <v>50.50686992738121</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2941922271.971605</v>
+        <v>2858964145.728433</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1341043434793076</v>
+        <v>0.1902274428964427</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03744460513229158</v>
+        <v>0.04341912341491606</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3353595596.827527</v>
+        <v>3741909650.988915</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07662695293875812</v>
+        <v>0.06998355624974098</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02756596930993254</v>
+        <v>0.02413442055476689</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>222</v>
+      </c>
+      <c r="J13" t="n">
+        <v>423</v>
+      </c>
+      <c r="K13" t="n">
+        <v>33.66235947453043</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3026825623.742184</v>
+        <v>3299276241.842051</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1871499738519738</v>
+        <v>0.1740876064824472</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03451303360690191</v>
+        <v>0.03076164200801231</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>89</v>
+      </c>
+      <c r="J14" t="n">
+        <v>424</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44.51757288473331</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1515954910.043085</v>
+        <v>1276167748.577173</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07396117074780049</v>
+        <v>0.09240896078504847</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0354047879126</v>
+        <v>0.03986081441998267</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2774542045.919118</v>
+        <v>2069343941.449664</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08723552162775036</v>
+        <v>0.07461386926102119</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04940610946198167</v>
+        <v>0.04415532596720314</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3205314116.842986</v>
+        <v>3263350826.37317</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1567427330941244</v>
+        <v>0.1711787480539625</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04277724377848517</v>
+        <v>0.04949795662553356</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>206</v>
+      </c>
+      <c r="J17" t="n">
+        <v>423</v>
+      </c>
+      <c r="K17" t="n">
+        <v>26.24064833958672</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1065,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3733370185.208416</v>
+        <v>3511011872.255005</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1382131329297016</v>
+        <v>0.1208757896600928</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02443565520587643</v>
+        <v>0.03001667097956532</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>109</v>
+      </c>
+      <c r="J18" t="n">
+        <v>424</v>
+      </c>
+      <c r="K18" t="n">
+        <v>45.93678742742788</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1212756821.57361</v>
+        <v>1058123405.589377</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1246817957410863</v>
+        <v>0.1854258549429649</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02605719081290067</v>
+        <v>0.02122585378806417</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2497758928.83928</v>
+        <v>2065790243.406494</v>
       </c>
       <c r="F20" t="n">
-        <v>0.140615807719964</v>
+        <v>0.1248936751747144</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02419183944290769</v>
+        <v>0.02892680190020358</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2144308076.656321</v>
+        <v>2206236294.479188</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07190969579324671</v>
+        <v>0.06328577992228586</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03481850844139701</v>
+        <v>0.03438235532439501</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1207,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3418028254.582027</v>
+        <v>3659346375.840333</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1065956154568934</v>
+        <v>0.1349052301566988</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05380863676151398</v>
+        <v>0.03482381151012207</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>119</v>
+      </c>
+      <c r="J22" t="n">
+        <v>424</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1248371840.036735</v>
+        <v>1537884741.862347</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1440809790790192</v>
+        <v>0.122079258755792</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03349133183257311</v>
+        <v>0.04509658217025803</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3913685796.342801</v>
+        <v>2600419785.048287</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1072343639530398</v>
+        <v>0.1315614987725743</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02690074581441756</v>
+        <v>0.03635201630460667</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>134</v>
+      </c>
+      <c r="J24" t="n">
+        <v>422</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1085796449.748988</v>
+        <v>1289966155.061946</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1084866116627037</v>
+        <v>0.1151852156365327</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02631008753174769</v>
+        <v>0.02073643522119207</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>916562071.6097025</v>
+        <v>943249584.5392616</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07947224910570931</v>
+        <v>0.12095100566921</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03353820997818686</v>
+        <v>0.03218334840492937</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4220584953.128771</v>
+        <v>3825100573.261374</v>
       </c>
       <c r="F27" t="n">
-        <v>0.119923412368552</v>
+        <v>0.12894420571584</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02000902259880376</v>
+        <v>0.02689291747407289</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>181</v>
+      </c>
+      <c r="J27" t="n">
+        <v>423</v>
+      </c>
+      <c r="K27" t="n">
+        <v>40.69180343879564</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1425,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3222537545.54671</v>
+        <v>2559994416.528164</v>
       </c>
       <c r="F28" t="n">
-        <v>0.117149622613739</v>
+        <v>0.144106836694811</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04725042301457819</v>
+        <v>0.03094774724352354</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>423</v>
+      </c>
+      <c r="K28" t="n">
+        <v>24.84330091660763</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5508690233.340397</v>
+        <v>4193371902.888883</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1211030433487573</v>
+        <v>0.1154364840756425</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04271761918111122</v>
+        <v>0.03262096927248017</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>353</v>
+      </c>
+      <c r="J29" t="n">
+        <v>423</v>
+      </c>
+      <c r="K29" t="n">
+        <v>37.81324319610252</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1737427174.79863</v>
+        <v>2305202869.159595</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1335583254734707</v>
+        <v>0.09247487430093274</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03020467868045514</v>
+        <v>0.03975439279254726</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1283979128.269766</v>
+        <v>1465717095.468112</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0918012348751466</v>
+        <v>0.1012287853405672</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04395115078303169</v>
+        <v>0.05208012704884939</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1628644476.007665</v>
+        <v>1451205306.945984</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0905924245354172</v>
+        <v>0.07539019529066687</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02446791736860522</v>
+        <v>0.02922990427605041</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1598,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2312933971.960659</v>
+        <v>3107885513.381631</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1917278902273573</v>
+        <v>0.1853719730483258</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03998306425945556</v>
+        <v>0.05529923015315408</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1214842363.860966</v>
+        <v>988876723.900707</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1183088105888149</v>
+        <v>0.08595136653019669</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01959578892711602</v>
+        <v>0.02139210878707266</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1142802132.748407</v>
+        <v>1001303837.675213</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07578559776837357</v>
+        <v>0.1146907868632436</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03559604501598789</v>
+        <v>0.03325553754019098</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2681989215.655285</v>
+        <v>3041400738.500288</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116119080862552</v>
+        <v>0.1161761397301549</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02883141827190878</v>
+        <v>0.01755177245867416</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2838844398.865243</v>
+        <v>1972973274.333268</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09012358198875579</v>
+        <v>0.1049315126935246</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03890624926319559</v>
+        <v>0.03517619403798005</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1779,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1800517557.279883</v>
+        <v>1388748245.672915</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0828006490141103</v>
+        <v>0.1008844897687025</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0372498745311045</v>
+        <v>0.03474525302048505</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1814,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2123393819.334304</v>
+        <v>1791212538.036418</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1431345647628313</v>
+        <v>0.1736042261714008</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02978807541244064</v>
+        <v>0.02083220921500863</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1359606250.156275</v>
+        <v>1488670841.031721</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1535493214056579</v>
+        <v>0.1137726822835523</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05976021840126831</v>
+        <v>0.04322464652188862</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2778812252.826885</v>
+        <v>2010143514.492915</v>
       </c>
       <c r="F41" t="n">
-        <v>0.130173000634161</v>
+        <v>0.1562436533811316</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0354920848249974</v>
+        <v>0.03283792578484553</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1919,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3410116382.912201</v>
+        <v>4201783876.105576</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1216437205793825</v>
+        <v>0.1112769751381869</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03458525627547356</v>
+        <v>0.04087540042726361</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>181</v>
+      </c>
+      <c r="J42" t="n">
+        <v>424</v>
+      </c>
+      <c r="K42" t="n">
+        <v>51.07697522504716</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2697897850.105173</v>
+        <v>2686260020.127487</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1348334906235538</v>
+        <v>0.1784196726508699</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01865961198371455</v>
+        <v>0.02021918508104799</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1991,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1695814808.157824</v>
+        <v>2112199233.395428</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09677814830300537</v>
+        <v>0.07153400997070375</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03053664528002033</v>
+        <v>0.03127147452147391</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2026944489.23885</v>
+        <v>2291845716.043304</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1177897814963081</v>
+        <v>0.1181864606789178</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03476407770316174</v>
+        <v>0.04976804087097183</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2061,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5598833130.747991</v>
+        <v>5608446143.307053</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1600903863266367</v>
+        <v>0.1394641175147266</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04914519087588368</v>
+        <v>0.05082222356866507</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>253</v>
+      </c>
+      <c r="J46" t="n">
+        <v>424</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4394066016.064425</v>
+        <v>3279455118.650432</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1230423757383328</v>
+        <v>0.190747977408578</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05007759898779813</v>
+        <v>0.05138654964893077</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>190</v>
+      </c>
+      <c r="J47" t="n">
+        <v>423</v>
+      </c>
+      <c r="K47" t="n">
+        <v>27.60043726739488</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2127,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4618673593.179054</v>
+        <v>3930104059.432634</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08062790883424961</v>
+        <v>0.08478906847833616</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03716790550602657</v>
+        <v>0.02973658069044496</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>217</v>
+      </c>
+      <c r="J48" t="n">
+        <v>423</v>
+      </c>
+      <c r="K48" t="n">
+        <v>41.30838802830185</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2164,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1864090481.015353</v>
+        <v>1307391180.493644</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1755453925183493</v>
+        <v>0.1863917705384737</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03893902013554311</v>
+        <v>0.02971197353399501</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2199,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3193957168.408118</v>
+        <v>3551476392.496958</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1531865912139586</v>
+        <v>0.172688504190749</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03861735947243673</v>
+        <v>0.0377219550712221</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>146</v>
+      </c>
+      <c r="J50" t="n">
+        <v>421</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2234,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>957975069.0641348</v>
+        <v>1083718336.144536</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1496831481308875</v>
+        <v>0.1680069559599736</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05153172438959154</v>
+        <v>0.04519031899903615</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2269,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4188343381.989648</v>
+        <v>3967286684.437322</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1092810705933302</v>
+        <v>0.1089364462738061</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04653625400117321</v>
+        <v>0.04699002286218443</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>244</v>
+      </c>
+      <c r="J52" t="n">
+        <v>423</v>
+      </c>
+      <c r="K52" t="n">
+        <v>37.27767910605813</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2306,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3769433151.391288</v>
+        <v>3567086849.009799</v>
       </c>
       <c r="F53" t="n">
-        <v>0.137964338325323</v>
+        <v>0.1990436946872559</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02820435770748722</v>
+        <v>0.02624582571582725</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>62</v>
+      </c>
+      <c r="J53" t="n">
+        <v>424</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2341,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3334093473.108661</v>
+        <v>3736433363.408413</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1314164013586981</v>
+        <v>0.1199778921461551</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05121539653964239</v>
+        <v>0.0457798567690602</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>226</v>
+      </c>
+      <c r="J54" t="n">
+        <v>424</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2376,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4088540027.660028</v>
+        <v>3529420456.911707</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1817065609878872</v>
+        <v>0.1997441985163491</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02975736182485906</v>
+        <v>0.03045804576191583</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>210</v>
+      </c>
+      <c r="J55" t="n">
+        <v>422</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1314569586.514784</v>
+        <v>1688664564.853931</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1352892580802241</v>
+        <v>0.1292483892171453</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04829776543285091</v>
+        <v>0.05551994250999626</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3121668466.044601</v>
+        <v>3808096855.55058</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1579082100249863</v>
+        <v>0.1346507736511544</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02328902355493009</v>
+        <v>0.0220759954646366</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>184</v>
+      </c>
+      <c r="J57" t="n">
+        <v>424</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2487,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1604395777.19962</v>
+        <v>1705754810.796812</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1360977788358468</v>
+        <v>0.1618869650497216</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02999160090087036</v>
+        <v>0.02539664705808759</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2522,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5071737368.905883</v>
+        <v>5163923934.301625</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1068599069031699</v>
+        <v>0.1064811682281241</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04626642520648433</v>
+        <v>0.04798717254459828</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>207</v>
+      </c>
+      <c r="J59" t="n">
+        <v>423</v>
+      </c>
+      <c r="K59" t="n">
+        <v>41.33507506253826</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2942789709.121264</v>
+        <v>3000754583.713798</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1815596342629795</v>
+        <v>0.144465549845117</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02783272230203823</v>
+        <v>0.03148821837201595</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>420</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3347679387.217697</v>
+        <v>3118314002.649483</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1327097246849845</v>
+        <v>0.1598049542604847</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03107144156314635</v>
+        <v>0.02979900182282715</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1953472033.378938</v>
+        <v>1954329538.993721</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1187983019119887</v>
+        <v>0.177386305339248</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04379907373197297</v>
+        <v>0.0479441948234522</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2664,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3419476573.332849</v>
+        <v>4772631816.901209</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0829363575296828</v>
+        <v>0.1032252756979324</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03862905860690186</v>
+        <v>0.03562967227328341</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>211</v>
+      </c>
+      <c r="J63" t="n">
+        <v>424</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2699,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4553505134.134629</v>
+        <v>4955875865.014898</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1310405779563842</v>
+        <v>0.1667451061251157</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02397470588155002</v>
+        <v>0.02641013488004839</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>212</v>
+      </c>
+      <c r="J64" t="n">
+        <v>424</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4226536411.681046</v>
+        <v>5435818931.962308</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1150394457990219</v>
+        <v>0.1120834084045343</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02245692287779566</v>
+        <v>0.03055065359379113</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>309</v>
+      </c>
+      <c r="J65" t="n">
+        <v>424</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3504832333.647416</v>
+        <v>5016235111.566823</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1137769183319826</v>
+        <v>0.1140183938589661</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04411471319160457</v>
+        <v>0.03510556084290915</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>209</v>
+      </c>
+      <c r="J66" t="n">
+        <v>423</v>
+      </c>
+      <c r="K66" t="n">
+        <v>40.77034291484835</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2806809952.975331</v>
+        <v>3496209063.263801</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06568108420063755</v>
+        <v>0.09147453770105482</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03409563542970557</v>
+        <v>0.0423994850373927</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,17 +2841,24 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3723127414.375888</v>
+        <v>5971502417.326669</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1360443370459159</v>
+        <v>0.1185327660593589</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03368844468830128</v>
+        <v>0.04664114584977316</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>231</v>
+      </c>
+      <c r="J68" t="n">
+        <v>424</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1689346384.259269</v>
+        <v>1881085700.973064</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1484198337895749</v>
+        <v>0.1204879717261612</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05725292037249745</v>
+        <v>0.04027761118069945</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3218295766.547043</v>
+        <v>2651073172.573285</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06721247265785543</v>
+        <v>0.06572157409310382</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03431229047869654</v>
+        <v>0.04045940204839953</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3752652935.905649</v>
+        <v>5269241862.439506</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1509718597030377</v>
+        <v>0.1514065332456751</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02951313790290489</v>
+        <v>0.03202271142121544</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>296</v>
+      </c>
+      <c r="J71" t="n">
+        <v>423</v>
+      </c>
+      <c r="K71" t="n">
+        <v>39.03382564333971</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1927553727.883813</v>
+        <v>1647330681.384063</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09745095156790161</v>
+        <v>0.1035785095986529</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04564927406213675</v>
+        <v>0.04428484431026468</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2563613967.51999</v>
+        <v>2601988084.383255</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1040214048276354</v>
+        <v>0.07441319613586064</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04841987302048265</v>
+        <v>0.0402317648097392</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2986917520.863278</v>
+        <v>3897561644.635337</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1444067286859236</v>
+        <v>0.1648899184631995</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02705792006393656</v>
+        <v>0.02815595573836379</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>121</v>
+      </c>
+      <c r="J74" t="n">
+        <v>424</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2435822747.390296</v>
+        <v>2375077932.938704</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1642039141045103</v>
+        <v>0.1120863896086027</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03444175543696053</v>
+        <v>0.03100921637568304</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4689354328.049273</v>
+        <v>3239872969.275349</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1141021375171791</v>
+        <v>0.1236061537525286</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02741591885258077</v>
+        <v>0.0244626251772448</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>202</v>
+      </c>
+      <c r="J76" t="n">
+        <v>423</v>
+      </c>
+      <c r="K76" t="n">
+        <v>26.76350766398667</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1983625268.831473</v>
+        <v>1873265875.037903</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1185554606945557</v>
+        <v>0.1650991855754788</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02445933314474964</v>
+        <v>0.0201341979070245</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4553244636.516702</v>
+        <v>3766707315.398712</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1002288556276695</v>
+        <v>0.1351711465531318</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05118957869562489</v>
+        <v>0.04337368735604282</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>212</v>
+      </c>
+      <c r="J78" t="n">
+        <v>424</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1750352965.095758</v>
+        <v>1238955354.709326</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1530936894010246</v>
+        <v>0.1140545368372937</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03572466492992184</v>
+        <v>0.03118751374985035</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5547419377.136519</v>
+        <v>5142631026.265664</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08508264703946243</v>
+        <v>0.08235070067882051</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0379309920483087</v>
+        <v>0.02616375396874275</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>206</v>
+      </c>
+      <c r="J80" t="n">
+        <v>424</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4981691220.600964</v>
+        <v>3634584650.608287</v>
       </c>
       <c r="F81" t="n">
-        <v>0.132974098151761</v>
+        <v>0.09254853208885706</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02347777690878127</v>
+        <v>0.02022244166712333</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>196</v>
+      </c>
+      <c r="J81" t="n">
+        <v>424</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4419033532.860985</v>
+        <v>4876387701.434074</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2053521998661099</v>
+        <v>0.1463209670257571</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02390300665856019</v>
+        <v>0.02568150315843564</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>288</v>
+      </c>
+      <c r="J82" t="n">
+        <v>423</v>
+      </c>
+      <c r="K82" t="n">
+        <v>38.25539390011587</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1850697479.92015</v>
+        <v>1642747236.112625</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1385337685707106</v>
+        <v>0.09852890056890602</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02788720692718342</v>
+        <v>0.03949653494683422</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2582907557.987843</v>
+        <v>1677205436.014721</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1042587403776625</v>
+        <v>0.1059000718367646</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0402882855326362</v>
+        <v>0.03764457046303814</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2464448366.831493</v>
+        <v>3119323047.547596</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1235578972672268</v>
+        <v>0.144987899628594</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04921863498815275</v>
+        <v>0.03533338692704546</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>55</v>
+      </c>
+      <c r="J85" t="n">
+        <v>421</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2577390708.714156</v>
+        <v>2264532606.895571</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1090287554374696</v>
+        <v>0.1333648747737916</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02570342984330823</v>
+        <v>0.02141915386654872</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1141817845.287358</v>
+        <v>1446131325.782075</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1656398823673458</v>
+        <v>0.1343160605667708</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03347425876297568</v>
+        <v>0.03255411532080535</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3438190221.512418</v>
+        <v>2686894682.477848</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1783077001937334</v>
+        <v>0.1468537355547846</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0254493671380721</v>
+        <v>0.02516296292744923</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>54</v>
+      </c>
+      <c r="J88" t="n">
+        <v>419</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3511236027.231864</v>
+        <v>3428033175.948196</v>
       </c>
       <c r="F89" t="n">
-        <v>0.145602617401923</v>
+        <v>0.1600684017133974</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03750191215825301</v>
+        <v>0.02658953351040625</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1390946433.098888</v>
+        <v>1638587081.365452</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09052465767335979</v>
+        <v>0.1217521676664277</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04605564160494396</v>
+        <v>0.04929467010831714</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1398614735.349503</v>
+        <v>1671940254.603086</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1343870891050846</v>
+        <v>0.1944691963006189</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0550070160400631</v>
+        <v>0.05482571361323334</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2220062775.86804</v>
+        <v>1881509387.559333</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1050299888249522</v>
+        <v>0.09564241348945603</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02980805713660633</v>
+        <v>0.03297725953909549</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4385519972.4177</v>
+        <v>4596645565.235878</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1101874344978919</v>
+        <v>0.1011851100850897</v>
       </c>
       <c r="G93" t="n">
-        <v>0.040304118206587</v>
+        <v>0.05493497648961022</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>204</v>
+      </c>
+      <c r="J93" t="n">
+        <v>424</v>
+      </c>
+      <c r="K93" t="n">
+        <v>41.33767814205655</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2284596923.491585</v>
+        <v>2225559476.402366</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1262560434468096</v>
+        <v>0.119131556973246</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0314864420934151</v>
+        <v>0.03640351521960059</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2075579061.312556</v>
+        <v>2581716329.741357</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08378186195591768</v>
+        <v>0.08507020985260477</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03397258394859147</v>
+        <v>0.04993406734278038</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2221463669.258908</v>
+        <v>1755593918.664475</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1061036839140417</v>
+        <v>0.1147857207280055</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03227881535658837</v>
+        <v>0.04707789741651676</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4145513566.622412</v>
+        <v>3723779832.251481</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1111056530772901</v>
+        <v>0.1251580956366171</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02597594434770778</v>
+        <v>0.02184370310383005</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>221</v>
+      </c>
+      <c r="J97" t="n">
+        <v>424</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2952366953.202626</v>
+        <v>3179841878.709455</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1185411547876459</v>
+        <v>0.08038831310509352</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0244325299162112</v>
+        <v>0.02228859363627326</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2783148967.273526</v>
+        <v>2139665533.160249</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1261234353102274</v>
+        <v>0.1453473049133087</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02998960734140593</v>
+        <v>0.02590924358777787</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3017370745.477315</v>
+        <v>4515685866.296545</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1571523399683438</v>
+        <v>0.1675334453454522</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01841579278575797</v>
+        <v>0.02120052709898292</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>198</v>
+      </c>
+      <c r="J100" t="n">
+        <v>423</v>
+      </c>
+      <c r="K100" t="n">
+        <v>40.60310393784933</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3239804758.444305</v>
+        <v>3338527515.459758</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1713436114020362</v>
+        <v>0.165561358372072</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05267337971891649</v>
+        <v>0.03716350209947038</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
